--- a/gold.xlsx
+++ b/gold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emiratessteeluae-my.sharepoint.com/personal/shakeel_awan_emsteel_com/Documents/1. Shakeel/Personel/BANK/GOLD XAU account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="772" documentId="13_ncr:1_{851D1004-1C5D-48B9-BE48-07C0F232C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DE1A4B-F3CE-4F60-9071-42F9E3C6CEA0}"/>
+  <xr:revisionPtr revIDLastSave="783" documentId="13_ncr:1_{851D1004-1C5D-48B9-BE48-07C0F232C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641A42F2-2E37-4408-96C1-DB50CDC40B7A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>XAU account</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>22.02.2026</t>
+  </si>
+  <si>
+    <t>27.02.2026</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -629,9 +632,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2902,14 +2902,14 @@
       <c r="B29" s="52"/>
       <c r="C29" s="24"/>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:D35" si="22">D28+C29</f>
+        <f t="shared" ref="D29:D36" si="22">D28+C29</f>
         <v>64683.9</v>
       </c>
       <c r="E29" s="22">
         <v>69716.61</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" ref="F29:F35" si="23">E29-D29</f>
+        <f t="shared" ref="F29:F36" si="23">E29-D29</f>
         <v>5032.7099999999991</v>
       </c>
       <c r="G29" s="19">
@@ -2943,11 +2943,11 @@
       </c>
       <c r="O29" s="47"/>
       <c r="P29" s="26">
-        <f t="shared" ref="P29:P35" si="28">N29-K29</f>
+        <f t="shared" ref="P29:P36" si="28">N29-K29</f>
         <v>-3.6659486223129534E-2</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29:Q35" si="29">N29-L29</f>
+        <f t="shared" ref="Q29:Q36" si="29">N29-L29</f>
         <v>23.64186766549858</v>
       </c>
       <c r="R29" s="1"/>
@@ -2979,7 +2979,7 @@
         <v>16931.170989999999</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" ref="J30:J35" si="30">H30-I30</f>
+        <f t="shared" ref="J30:J36" si="30">H30-I30</f>
         <v>736.4732299999996</v>
       </c>
       <c r="K30" s="27">
@@ -2991,7 +2991,7 @@
         <v>544.35813233450142</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" ref="M30:M35" si="33">K30-L30</f>
+        <f t="shared" ref="M30:M36" si="33">K30-L30</f>
         <v>23.67852715172171</v>
       </c>
       <c r="N30" s="1">
@@ -3038,11 +3038,11 @@
         <v>1000</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" ref="K31:K35" si="34">H31/31.103</f>
+        <f t="shared" ref="K31:K36" si="34">H31/31.103</f>
         <v>594.79792946018063</v>
       </c>
       <c r="L31" s="27">
-        <f t="shared" ref="L31:L35" si="35">I31/31.103</f>
+        <f t="shared" ref="L31:L36" si="35">I31/31.103</f>
         <v>562.64669002990058</v>
       </c>
       <c r="M31" s="15">
@@ -3291,8 +3291,59 @@
       </c>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G36" s="59"/>
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="5">
+        <f t="shared" si="22"/>
+        <v>64683.9</v>
+      </c>
+      <c r="E36" s="22">
+        <v>76611.03</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="23"/>
+        <v>11927.129999999997</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="29">
+        <v>19369.234929999999</v>
+      </c>
+      <c r="I36" s="28">
+        <v>18651.126700000001</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" si="30"/>
+        <v>718.108229999998</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="34"/>
+        <v>622.74490981577333</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="35"/>
+        <v>599.65684017618878</v>
+      </c>
+      <c r="M36" s="15">
+        <f t="shared" si="33"/>
+        <v>23.088069639584546</v>
+      </c>
+      <c r="N36" s="1">
+        <v>631</v>
+      </c>
+      <c r="O36" s="47"/>
+      <c r="P36" s="26">
+        <f t="shared" si="28"/>
+        <v>8.255090184226674</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="29"/>
+        <v>31.34315982381122</v>
+      </c>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="C37" s="54"/>
@@ -3338,6 +3389,10 @@
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="55"/>
+      <c r="I39">
+        <f>I36*4</f>
+        <v>74604.506800000003</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="54" t="s">
@@ -3352,7 +3407,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F27:F35">
+  <conditionalFormatting sqref="F27:F36">
     <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3386,7 +3441,7 @@
       <formula>"D11&lt;D12"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G35">
+  <conditionalFormatting sqref="G28:G36">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3594,10 +3649,10 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -4927,8 +4982,8 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -4949,8 +5004,8 @@
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4971,8 +5026,8 @@
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="46"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -4993,8 +5048,8 @@
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="2"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
